--- a/data/phydrv.xlsx
+++ b/data/phydrv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list_phydrv" sheetId="1" r:id="rId1"/>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -a mod -p 1 -s "alias=1,writecache=enable,rlacache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WriteCache: Enabled</t>
   </si>
   <si>
@@ -237,18 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -a mod -p 1 -s "alias=ab,writecache=disable,rlacache=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=test_test_test_test_test_tes30,readcache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=_test_test_test_test_test_tes31,readcache=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alias: _test_test_test_test_test_tes31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -a mod -p 1 -s "temppollint=16,mediumerrorthreshold=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temppollint=16,mediumerrorthreshold=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -a mod -p 1 -s "temppollint=15,mediumerrorthreshold=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TempPollInt: 16</t>
   </si>
   <si>
@@ -329,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -a mod -p 8 -s "temppollint=254,mediumerrorthreshold=4294967293"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phydrv -v -p 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +417,6 @@
     <t>StaleConfig</t>
   </si>
   <si>
-    <t>phydrv -a mod -p 9 -s "temppollint=255,mediumerrorthreshold=4294967294"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all physical drive should be modified</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,314 +425,338 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TempPollInt: 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only display 2 physical drive info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encl1 Slot1</t>
+  </si>
+  <si>
+    <t>Encl1 Slot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 17</t>
+  </si>
+  <si>
+    <t>Invalid physical drive id in data buffer</t>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only DDF on a dead drive can be cleared</t>
+  </si>
+  <si>
+    <t>phydrv -a locate -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid physical drive id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p test -s "alias=1,writecache=enable,rlacache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 17 -s "alias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phydrv not found</t>
+  </si>
+  <si>
+    <t>Error (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=77,mediumerrorthreshold=777"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "alias=1,writecache=enable,rlacache=disable"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "alias=ab,writecache=disable,rlacache=enable"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "alias=test_test_test_test_test_tes30,readcache=disable"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "alias=_test_test_test_test_test_tes31,readcache=enable"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "temppollint=15,mediumerrorthreshold=0"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "temppollint=16,mediumerrorthreshold=1"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 8 -s "temppollint=254,mediumerrorthreshold=4294967293"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 9 -s "temppollint=255,mediumerrorthreshold=4294967294"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s "temppollint=33,mediumerrorthreshold=333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>phydrv -a mod -d all -s "temppollint=22,mediumerrorthreshold=222"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s "temppollint=33,mediumerrorthreshold=333"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only display 2 physical drive info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encl1 Slot1</t>
-  </si>
-  <si>
-    <t>Encl1 Slot2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 17</t>
-  </si>
-  <si>
-    <t>Invalid physical drive id in data buffer</t>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only DDF on a dead drive can be cleared</t>
-  </si>
-  <si>
-    <t>phydrv -a locate -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid physical drive id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p test -s "alias=1,writecache=enable,rlacache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 17 -s "alias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phydrv not found</t>
-  </si>
-  <si>
-    <t>Error (</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=77,mediumerrorthreshold=777"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 777</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,16 +1197,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1374,12 +1366,12 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="80.5" customWidth="1"/>
+    <col min="1" max="1" width="87.375" customWidth="1"/>
     <col min="2" max="2" width="70.875" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
@@ -1403,7 +1395,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -1415,15 +1407,15 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -1435,15 +1427,15 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -1452,15 +1444,15 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1469,18 +1461,18 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1489,131 +1481,131 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1647,50 +1639,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1731,36 +1723,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1800,30 +1792,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1849,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1865,18 +1857,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1884,7 +1876,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1892,7 +1884,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1900,7 +1892,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1908,7 +1900,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1916,15 +1908,15 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1932,7 +1924,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1940,7 +1932,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1948,7 +1940,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1956,7 +1948,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1964,7 +1956,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1972,7 +1964,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1980,7 +1972,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1988,7 +1980,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1996,7 +1988,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2004,7 +1996,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2012,7 +2004,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2020,7 +2012,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2028,15 +2020,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2044,15 +2036,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -2060,7 +2052,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2068,15 +2060,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -2084,7 +2076,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2092,7 +2084,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2100,7 +2092,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2108,18 +2100,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2152,15 +2144,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2168,7 +2160,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2176,7 +2168,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2184,7 +2176,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2192,7 +2184,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2200,7 +2192,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2208,7 +2200,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2216,7 +2208,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2224,7 +2216,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2232,7 +2224,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2240,7 +2232,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2276,15 +2268,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2292,7 +2284,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2300,7 +2292,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2308,7 +2300,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2316,7 +2308,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2324,7 +2316,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2332,7 +2324,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2340,7 +2332,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2348,7 +2340,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2356,7 +2348,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2364,7 +2356,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2372,7 +2364,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2380,7 +2372,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/phydrv.xlsx
+++ b/data/phydrv.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="207">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,556 +207,615 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alias: ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WriteCache: Enabled</t>
   </si>
   <si>
+    <t>RlaCacheSupport: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: _test_test_test_test_test_tes31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: test_test_test_test_test_tes30</t>
+  </si>
+  <si>
+    <t>TempPollInt: 16</t>
+  </si>
+  <si>
+    <t>TempPollInt: 254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 0</t>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 1</t>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 4294967293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 4294967294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 5 -s "alias=test_cache"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 16 -s "alias=test_cache"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The parameters of physical drive if modified when it configures wcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The parameters of physical drive if modified when it configures rcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 9</t>
+  </si>
+  <si>
+    <t>pd can be located when it configured pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured wcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured global spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured dedicated spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured unconfigured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured rcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the specific pd is offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the specific pd is online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Forced</t>
+  </si>
+  <si>
+    <t>OK, Forced</t>
+  </si>
+  <si>
+    <t>phydrv -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to clear the stale configuration on the drive</t>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 -t staleconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unconfigured</t>
+  </si>
+  <si>
+    <t>StaleConfig</t>
+  </si>
+  <si>
+    <t>TempPollInt: 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only display 2 physical drive info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encl1 Slot1</t>
+  </si>
+  <si>
+    <t>Encl1 Slot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 17</t>
+  </si>
+  <si>
+    <t>Invalid physical drive id in data buffer</t>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only DDF on a dead drive can be cleared</t>
+  </si>
+  <si>
+    <t>phydrv -a locate -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid physical drive id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p test -s "alias=1,writecache=enable,rlacache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 17 -s "alias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phydrv not found</t>
+  </si>
+  <si>
+    <t>Error (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=AB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=test_test_test_test_test_tes30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=_test_test_test_test_test_tes31"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "writecache=enable,rlacache=disable,readcache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "writecache=disable,rlacache=enable,readcache=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "writecache=enable,rlacache=disable,readcache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "writecache=disable,rlacache=enable,readcache=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ReadCache: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WriteCache: Disabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RlaCacheSupport: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ReadCache: Enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RlaCacheSupport: Enabled</t>
-  </si>
-  <si>
-    <t>RlaCacheSupport: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: _test_test_test_test_test_tes31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: test_test_test_test_test_tes30</t>
-  </si>
-  <si>
-    <t>temppollint=15,mediumerrorthreshold=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temppollint=16,mediumerrorthreshold=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temppollint=254,mediumerrorthreshold=4294967293</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temppollint=255,mediumerrorthreshold=4294967294</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 16</t>
-  </si>
-  <si>
-    <t>TempPollInt: 254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 0</t>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 1</t>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 4294967293</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 4294967294</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 5 -s "alias=test_cache"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 16 -s "alias=test_cache"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The parameters of physical drive if modified when it configures wcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The parameters of physical drive if modified when it configures rcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 9</t>
-  </si>
-  <si>
-    <t>pd can be located when it configured pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured wcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured global spare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured dedicated spare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured unconfigured</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured rcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the specific pd is offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the specific pd is online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Forced</t>
-  </si>
-  <si>
-    <t>OK, Forced</t>
-  </si>
-  <si>
-    <t>phydrv -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>precondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to clear the stale configuration on the drive</t>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 -t staleconfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unconfigured</t>
-  </si>
-  <si>
-    <t>StaleConfig</t>
-  </si>
-  <si>
-    <t>all physical drive should be modified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only sas physical drive should be modified</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only display 2 physical drive info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encl1 Slot1</t>
-  </si>
-  <si>
-    <t>Encl1 Slot2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 17</t>
-  </si>
-  <si>
-    <t>Invalid physical drive id in data buffer</t>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only DDF on a dead drive can be cleared</t>
-  </si>
-  <si>
-    <t>phydrv -a locate -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 17</t>
+    <t>phydrv -a mod -s "temppollint=15,mediumerrorthreshold=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=15,mediumerrorthreshold=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=16,mediumerrorthreshold=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=16,mediumerrorthreshold=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=254,mediumerrorthreshold=4294967293"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=254,mediumerrorthreshold=4294967293"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=255,mediumerrorthreshold=4294967294"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=255,mediumerrorthreshold=4294967294"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=77,mediumerrorthreshold=777"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=77,mediumerrorthreshold=777"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s "temppollint=22,mediumerrorthreshold=222"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all physical drive should be modified by "temppollint=22,mediumerrorthreshold=222"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s "temppollint=33,mediumerrorthreshold=333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only sas physical drive should be modified by "temppollint=33,mediumerrorthreshold=333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=test"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Invalid physical drive id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p test -s "alias=1,writecache=enable,rlacache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 17 -s "alias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phydrv not found</t>
-  </si>
-  <si>
-    <t>Error (</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=77,mediumerrorthreshold=777"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "alias=1,writecache=enable,rlacache=disable"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "alias=ab,writecache=disable,rlacache=enable"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "alias=test_test_test_test_test_tes30,readcache=disable"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "alias=_test_test_test_test_test_tes31,readcache=enable"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "temppollint=15,mediumerrorthreshold=0"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "temppollint=16,mediumerrorthreshold=1"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 8 -s "temppollint=254,mediumerrorthreshold=4294967293"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 9 -s "temppollint=255,mediumerrorthreshold=4294967294"</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s "temppollint=33,mediumerrorthreshold=333"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s "temppollint=22,mediumerrorthreshold=222"</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "alias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: AB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,16 +1256,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1363,16 +1422,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="87.375" customWidth="1"/>
-    <col min="2" max="2" width="70.875" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
@@ -1395,7 +1454,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -1406,16 +1465,10 @@
       <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -1424,18 +1477,12 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -1444,15 +1491,12 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1461,112 +1505,115 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1574,38 +1621,72 @@
         <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1639,50 +1720,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1723,36 +1804,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1792,30 +1873,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1849,7 +1930,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1857,18 +1938,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1876,7 +1957,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1884,7 +1965,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1892,7 +1973,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1900,7 +1981,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1908,31 +1989,31 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1940,7 +2021,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1948,7 +2029,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1956,7 +2037,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1964,7 +2045,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1972,7 +2053,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1980,7 +2061,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1988,7 +2069,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1996,7 +2077,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2004,7 +2085,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2012,7 +2093,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2020,15 +2101,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2036,15 +2117,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -2052,23 +2133,23 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -2076,15 +2157,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2092,7 +2173,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2100,18 +2181,34 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2144,15 +2241,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2160,7 +2257,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2168,7 +2265,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2176,7 +2273,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2184,7 +2281,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2192,7 +2289,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2200,7 +2297,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2208,7 +2305,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2216,7 +2313,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2224,7 +2321,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2232,7 +2329,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2268,15 +2365,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2284,7 +2381,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2292,7 +2389,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2300,7 +2397,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2308,7 +2405,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2316,7 +2413,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2324,7 +2421,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2332,7 +2429,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2340,7 +2437,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2348,7 +2445,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2356,7 +2453,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2364,7 +2461,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2372,7 +2469,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/phydrv.xlsx
+++ b/data/phydrv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="list_phydrv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="196">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,12 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WriteCache</t>
-  </si>
-  <si>
-    <t>ReadCache</t>
-  </si>
-  <si>
     <t>Global Spare</t>
   </si>
   <si>
@@ -246,30 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -v -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 5 -s "alias=test_cache"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 16 -s "alias=test_cache"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The parameters of physical drive if modified when it configures wcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The parameters of physical drive if modified when it configures rcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phydrv -v -p 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phydrv -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phydrv -p 513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,13 +621,6 @@
   </si>
   <si>
     <t>phydrv -a mod -d sas -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phydrv not found</t>
-  </si>
-  <si>
-    <t>Error (</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1163,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,13 +1138,11 @@
     <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1196,12 +1153,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1225,12 +1182,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1254,26 +1211,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1307,12 +1264,6 @@
       </c>
       <c r="M5" t="s">
         <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1355,62 +1306,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1422,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1454,239 +1405,217 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1720,50 +1649,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1804,36 +1733,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1873,30 +1802,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1907,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1920,7 +1849,7 @@
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1928,124 +1857,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2053,7 +1979,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2061,7 +1987,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2069,7 +1995,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2077,7 +2003,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2085,7 +2011,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2093,7 +2019,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2101,7 +2027,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2109,39 +2035,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2149,23 +2075,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2173,7 +2099,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2181,7 +2107,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2189,26 +2115,18 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2241,15 +2159,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2257,7 +2175,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2265,7 +2183,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2273,7 +2191,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2281,7 +2199,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2289,7 +2207,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2297,7 +2215,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2305,7 +2223,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2313,7 +2231,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2321,7 +2239,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2329,7 +2247,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2365,15 +2283,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2381,7 +2299,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2389,7 +2307,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2397,7 +2315,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2405,7 +2323,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2413,7 +2331,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2421,7 +2339,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2429,7 +2347,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2437,7 +2355,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2445,7 +2363,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2453,7 +2371,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2461,7 +2379,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2469,7 +2387,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/phydrv.xlsx
+++ b/data/phydrv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list_phydrv" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,6 @@
     <t>WriteCache: Enabled</t>
   </si>
   <si>
-    <t>RlaCacheSupport: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alias: _test_test_test_test_test_tes31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,10 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RlaCacheSupport: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReadCache: Enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,6 +767,14 @@
   </si>
   <si>
     <t>Alias: AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RlaCache: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RlaCache: Enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,16 +1213,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -1428,12 +1428,12 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -1442,12 +1442,12 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -1456,55 +1456,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
         <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1513,109 +1513,109 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
         <v>159</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1649,50 +1649,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1733,36 +1733,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1802,30 +1802,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1907,31 +1907,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2035,15 +2035,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
         <v>124</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -2051,15 +2051,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2075,15 +2075,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2115,18 +2115,18 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
         <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
         <v>121</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2159,15 +2159,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2283,15 +2283,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>

--- a/data/phydrv.xlsx
+++ b/data/phydrv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="list_phydrv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="197">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,10 @@
   </si>
   <si>
     <t>RlaCache: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,13 +1379,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="87.375" customWidth="1"/>
+    <col min="1" max="1" width="73.75" customWidth="1"/>
     <col min="2" max="2" width="90.5" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
@@ -1836,296 +1840,400 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="87.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>127</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>128</v>
       </c>
       <c r="B26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>129</v>
       </c>
       <c r="B29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>118</v>
       </c>
       <c r="B34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>120</v>
       </c>
       <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2137,119 +2245,158 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>137</v>
       </c>
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2261,135 +2408,180 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="77.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>151</v>
       </c>
       <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/phydrv.xlsx
+++ b/data/phydrv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list_phydrv" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="221">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,650 +136,737 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>list specific physical drive of HDD type by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list specific physical drive of SSD type by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PdId: 1 </t>
+  </si>
+  <si>
+    <t>MediaType: HDD</t>
+  </si>
+  <si>
+    <t>Temperature:</t>
+  </si>
+  <si>
+    <t>ReferenceTemperature:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PdId: 5 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaType: SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PdId: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaType:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 15</t>
+  </si>
+  <si>
+    <t>Alias: 1</t>
+  </si>
+  <si>
+    <t>physical drive alias should be modified 30 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical drive alias should be modified 31 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical drive alias should be modified 2 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical drive alias should be modified 1 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteCache: Enabled</t>
+  </si>
+  <si>
+    <t>Alias: _test_test_test_test_test_tes31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: test_test_test_test_test_tes30</t>
+  </si>
+  <si>
+    <t>TempPollInt: 16</t>
+  </si>
+  <si>
+    <t>TempPollInt: 254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 0</t>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 1</t>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 4294967293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 4294967294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 9</t>
+  </si>
+  <si>
+    <t>pd can be located when it configured pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured wcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured global spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured dedicated spare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured unconfigured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pd can be located when it configured rcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the specific pd is offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the specific pd is online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Forced</t>
+  </si>
+  <si>
+    <t>OK, Forced</t>
+  </si>
+  <si>
+    <t>phydrv -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to clear the stale configuration on the drive</t>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 -t staleconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unconfigured</t>
+  </si>
+  <si>
+    <t>StaleConfig</t>
+  </si>
+  <si>
+    <t>TempPollInt: 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only display 2 physical drive info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encl1 Slot1</t>
+  </si>
+  <si>
+    <t>Encl1 Slot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p 513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 17</t>
+  </si>
+  <si>
+    <t>Invalid physical drive id in data buffer</t>
+  </si>
+  <si>
+    <t>phydrv -a clear -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only DDF on a dead drive can be cleared</t>
+  </si>
+  <si>
+    <t>phydrv -a locate -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid physical drive id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p test -s "alias=1,writecache=enable,rlacache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 17 -s "alias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -p 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempPollInt: 77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumErrorThreshold: 777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=AB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=test_test_test_test_test_tes30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=_test_test_test_test_test_tes31"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "writecache=enable,rlacache=disable,readcache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "writecache=disable,rlacache=enable,readcache=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "writecache=enable,rlacache=disable,readcache=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "writecache=disable,rlacache=enable,readcache=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCache: Disabled</t>
+  </si>
+  <si>
+    <t>WriteCache: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadCache: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=15,mediumerrorthreshold=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=15,mediumerrorthreshold=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=16,mediumerrorthreshold=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=16,mediumerrorthreshold=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=254,mediumerrorthreshold=4294967293"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=254,mediumerrorthreshold=4294967293"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=255,mediumerrorthreshold=4294967294"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=255,mediumerrorthreshold=4294967294"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -s "temppollint=77,mediumerrorthreshold=777"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify pd by "temppollint=77,mediumerrorthreshold=777"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d all -s "temppollint=22,mediumerrorthreshold=222"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all physical drive should be modified by "temppollint=22,mediumerrorthreshold=222"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sas -s "temppollint=33,mediumerrorthreshold=333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only sas physical drive should be modified by "temppollint=33,mediumerrorthreshold=333"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -a mod -p 1 -s "alias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid physical drive id</t>
+  </si>
+  <si>
+    <t>phydrv -a mod -d sata -p 1 -s "alias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RlaCache: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RlaCache: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>all of physical drive should be listed by verbose mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list specific physical drive of HDD type by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list specific physical drive of SSD type by verbose mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PdId: 1 </t>
-  </si>
-  <si>
-    <t>MediaType: HDD</t>
-  </si>
-  <si>
-    <t>Temperature:</t>
-  </si>
-  <si>
-    <t>ReferenceTemperature:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PdId: 5 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaType: SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PdId: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaType:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check command</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 15</t>
-  </si>
-  <si>
-    <t>Alias: 1</t>
-  </si>
-  <si>
-    <t>physical drive alias should be modified 30 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical drive alias should be modified 31 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical drive alias should be modified 2 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical drive alias should be modified 1 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WriteCache: Enabled</t>
-  </si>
-  <si>
-    <t>Alias: _test_test_test_test_test_tes31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: test_test_test_test_test_tes30</t>
-  </si>
-  <si>
-    <t>TempPollInt: 16</t>
-  </si>
-  <si>
-    <t>TempPollInt: 254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 0</t>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 1</t>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 4294967293</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 4294967294</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 9</t>
-  </si>
-  <si>
-    <t>pd can be located when it configured pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured wcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured global spare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured dedicated spare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured unconfigured</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pd can be located when it configured rcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the specific pd is offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the specific pd is online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Forced</t>
-  </si>
-  <si>
-    <t>OK, Forced</t>
-  </si>
-  <si>
-    <t>phydrv -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>precondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to clear the stale configuration on the drive</t>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 -t staleconfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unconfigured</t>
-  </si>
-  <si>
-    <t>StaleConfig</t>
-  </si>
-  <si>
-    <t>TempPollInt: 22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only display 2 physical drive info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encl1 Slot1</t>
-  </si>
-  <si>
-    <t>Encl1 Slot2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p 513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 17</t>
-  </si>
-  <si>
-    <t>Invalid physical drive id in data buffer</t>
-  </si>
-  <si>
-    <t>phydrv -a clear -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only DDF on a dead drive can be cleared</t>
-  </si>
-  <si>
-    <t>phydrv -a locate -p test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid physical drive id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p test -s "alias=1,writecache=enable,rlacache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 17 -s "alias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -p 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a locate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempPollInt: 77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediumErrorThreshold: 777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=AB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=test_test_test_test_test_tes30"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=_test_test_test_test_test_tes31"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "writecache=enable,rlacache=disable,readcache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "writecache=disable,rlacache=enable,readcache=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "writecache=enable,rlacache=disable,readcache=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "writecache=disable,rlacache=enable,readcache=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadCache: Disabled</t>
-  </si>
-  <si>
-    <t>WriteCache: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadCache: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=15,mediumerrorthreshold=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "temppollint=15,mediumerrorthreshold=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=16,mediumerrorthreshold=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "temppollint=16,mediumerrorthreshold=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=254,mediumerrorthreshold=4294967293"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "temppollint=254,mediumerrorthreshold=4294967293"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=255,mediumerrorthreshold=4294967294"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "temppollint=255,mediumerrorthreshold=4294967294"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -s "temppollint=77,mediumerrorthreshold=777"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify pd by "temppollint=77,mediumerrorthreshold=777"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d all -s "temppollint=22,mediumerrorthreshold=222"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all physical drive should be modified by "temppollint=22,mediumerrorthreshold=222"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sas -s "temppollint=33,mediumerrorthreshold=333"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only sas physical drive should be modified by "temppollint=33,mediumerrorthreshold=333"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -v -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phydrv -a mod -p 1 -s "alias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid physical drive id</t>
-  </si>
-  <si>
-    <t>phydrv -a mod -d sata -p 1 -s "alias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RlaCache: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RlaCache: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Id:</t>
+  </si>
+  <si>
+    <t>UUID:</t>
+  </si>
+  <si>
+    <t>Capacity:</t>
+  </si>
+  <si>
+    <t>Vendor:</t>
+  </si>
+  <si>
+    <t>Model:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>PoolId:</t>
+  </si>
+  <si>
+    <t>all external drive info should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -l -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external drive 1 info should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phydrv -v -l -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all external drive info should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external drive 1 info should be listed by verbose mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>DevieStatus</t>
   </si>
 </sst>
 </file>
@@ -1126,18 +1213,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
@@ -1217,16 +1304,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -1268,6 +1355,64 @@
       </c>
       <c r="M5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1279,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1295,9 +1440,10 @@
     <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1308,64 +1454,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1379,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1401,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1409,217 +1625,217 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
         <v>169</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
         <v>171</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
         <v>175</v>
       </c>
-      <c r="B10" t="s">
-        <v>176</v>
-      </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
         <v>177</v>
       </c>
-      <c r="B11" t="s">
-        <v>178</v>
-      </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
         <v>179</v>
       </c>
-      <c r="B12" t="s">
-        <v>180</v>
-      </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>158</v>
-      </c>
-      <c r="E12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
         <v>181</v>
-      </c>
-      <c r="B13" t="s">
-        <v>182</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
         <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>184</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1653,50 +1869,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1737,36 +1953,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1806,30 +2022,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1842,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1860,12 +2076,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1876,7 +2092,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1887,7 +2103,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1898,7 +2114,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1909,7 +2125,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1920,7 +2136,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1931,40 +2147,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
         <v>191</v>
       </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1975,7 +2191,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1986,7 +2202,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1997,7 +2213,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2008,7 +2224,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2019,7 +2235,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2030,7 +2246,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2041,7 +2257,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2052,7 +2268,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2063,7 +2279,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2074,7 +2290,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2085,7 +2301,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2096,7 +2312,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2107,18 +2323,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
         <v>123</v>
       </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -2129,18 +2345,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2151,7 +2367,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2162,18 +2378,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2184,7 +2400,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2195,7 +2411,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2206,7 +2422,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2217,24 +2433,24 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
         <v>118</v>
       </c>
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2265,23 +2481,23 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2292,7 +2508,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2303,7 +2519,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2314,7 +2530,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2325,7 +2541,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2336,7 +2552,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2347,7 +2563,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2358,7 +2574,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2369,7 +2585,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2380,7 +2596,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2391,7 +2607,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2410,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2428,23 +2644,23 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2455,7 +2671,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2466,7 +2682,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2477,7 +2693,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2488,7 +2704,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2499,7 +2715,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2510,7 +2726,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2521,7 +2737,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2532,7 +2748,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2543,7 +2759,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2554,7 +2770,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -2565,7 +2781,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -2576,7 +2792,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
